--- a/biology/Biologie cellulaire et moléculaire/Symport/Symport.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Symport/Symport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un symport est une protéine intégrale de membrane (ou protéine transmembranaire)  qui implique le déplacement dans la même direction d'au moins deux molécules ou ions différents à travers des membranes phospholipidiques tel que la membrane plasmique, ce qui en fait un type de cotransporteur. En général, le ou les ions vont se déplacer en fonction du gradient électrochimique, permettant à d'autres molécules d'aller à l'encontre du gradient de concentration. Le déplacement des ions à travers la membrane relève de la diffusion facilitée et est couplé avec un transport actif de molécules.
 </t>
@@ -511,7 +523,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SGLT1 dans l'épithélium intestinal transporte des ions sodium (Na+) et du glucose à travers la membrane luminale des entérocytes pour qu'ils puissent par la suite rejoindre la circulation sanguine. 
 Ce transport est utilisé dans la thérapie de réhydratation orale. Sans ce symport, les canaux sodiques et glucidiques ne seraient pas capable de déplacer le glucose à l'encontre de son gradient de concentration pour qu'il se retrouve par la suite dans la circulation sanguine. 
